--- a/RCSA.xlsx
+++ b/RCSA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2279" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2279" uniqueCount="755">
   <si>
     <t>Risk Reference ID</t>
   </si>
@@ -2276,6 +2276,9 @@
   </si>
   <si>
     <t>"1) DOI; Media Management, Media Inventory, Media restoration testing report.</t>
+  </si>
+  <si>
+    <t>thiti.s@cimbthai.com1</t>
   </si>
 </sst>
 </file>
@@ -2283,9 +2286,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="191" formatCode="B1d\-mmm\-yy"/>
+    <numFmt numFmtId="187" formatCode="B1d\-mmm\-yy"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2452,6 +2455,15 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2752,7 +2764,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2795,15 +2807,17 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="191" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="187" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - ส่วนที่ถูกเน้น1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - ส่วนที่ถูกเน้น2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - ส่วนที่ถูกเน้น3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2822,6 +2836,7 @@
     <cellStyle name="60% - ส่วนที่ถูกเน้น4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - ส่วนที่ถูกเน้น5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - ส่วนที่ถูกเน้น6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="การคำนวณ" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="ข้อความเตือน" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -3147,10 +3162,10 @@
   <dimension ref="A1:AN94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" style="2" bestFit="1" customWidth="1"/>
@@ -3191,7 +3206,7 @@
     <col min="41" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3313,7 +3328,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
@@ -3323,8 +3338,8 @@
       <c r="C2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>43</v>
+      <c r="D2" s="5" t="s">
+        <v>754</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>44</v>
@@ -3402,7 +3417,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
@@ -3491,7 +3506,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -3580,7 +3595,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
@@ -3669,7 +3684,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>40</v>
       </c>
@@ -3758,7 +3773,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
@@ -3853,7 +3868,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>40</v>
       </c>
@@ -3948,7 +3963,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
@@ -4043,7 +4058,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>40</v>
       </c>
@@ -4138,7 +4153,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>40</v>
       </c>
@@ -4233,7 +4248,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>40</v>
       </c>
@@ -4328,7 +4343,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
@@ -4423,7 +4438,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>40</v>
       </c>
@@ -4512,7 +4527,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
@@ -4601,7 +4616,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
@@ -4690,7 +4705,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
@@ -4779,7 +4794,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
@@ -4868,7 +4883,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>194</v>
       </c>
@@ -4927,7 +4942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>194</v>
       </c>
@@ -5016,7 +5031,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>194</v>
       </c>
@@ -5105,7 +5120,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>194</v>
       </c>
@@ -5200,7 +5215,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>194</v>
       </c>
@@ -5289,7 +5304,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>194</v>
       </c>
@@ -5378,7 +5393,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>194</v>
       </c>
@@ -5467,7 +5482,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>194</v>
       </c>
@@ -5556,7 +5571,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>194</v>
       </c>
@@ -5645,7 +5660,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>194</v>
       </c>
@@ -5734,7 +5749,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>194</v>
       </c>
@@ -5823,7 +5838,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>194</v>
       </c>
@@ -5912,7 +5927,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>194</v>
       </c>
@@ -6001,7 +6016,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>194</v>
       </c>
@@ -6090,7 +6105,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>292</v>
       </c>
@@ -6179,7 +6194,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>292</v>
       </c>
@@ -6268,7 +6283,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>292</v>
       </c>
@@ -6357,7 +6372,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>292</v>
       </c>
@@ -6446,7 +6461,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>292</v>
       </c>
@@ -6535,7 +6550,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>292</v>
       </c>
@@ -6624,7 +6639,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>292</v>
       </c>
@@ -6713,7 +6728,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>292</v>
       </c>
@@ -6802,7 +6817,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>292</v>
       </c>
@@ -6891,7 +6906,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>292</v>
       </c>
@@ -6980,7 +6995,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>292</v>
       </c>
@@ -7069,7 +7084,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>292</v>
       </c>
@@ -7158,7 +7173,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>292</v>
       </c>
@@ -7247,7 +7262,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>292</v>
       </c>
@@ -7336,7 +7351,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>292</v>
       </c>
@@ -7425,7 +7440,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>292</v>
       </c>
@@ -7514,7 +7529,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>416</v>
       </c>
@@ -7615,7 +7630,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>416</v>
       </c>
@@ -7704,7 +7719,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>416</v>
       </c>
@@ -7793,7 +7808,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>416</v>
       </c>
@@ -7888,7 +7903,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>416</v>
       </c>
@@ -7977,7 +7992,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>416</v>
       </c>
@@ -8066,7 +8081,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>416</v>
       </c>
@@ -8155,7 +8170,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>416</v>
       </c>
@@ -8244,7 +8259,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>416</v>
       </c>
@@ -8333,7 +8348,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>416</v>
       </c>
@@ -8422,7 +8437,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>416</v>
       </c>
@@ -8511,7 +8526,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>416</v>
       </c>
@@ -8600,7 +8615,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>416</v>
       </c>
@@ -8689,7 +8704,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>416</v>
       </c>
@@ -8778,7 +8793,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>416</v>
       </c>
@@ -8867,7 +8882,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>530</v>
       </c>
@@ -8962,7 +8977,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>530</v>
       </c>
@@ -9051,7 +9066,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>530</v>
       </c>
@@ -9140,7 +9155,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>530</v>
       </c>
@@ -9229,7 +9244,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>530</v>
       </c>
@@ -9318,7 +9333,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>530</v>
       </c>
@@ -9407,7 +9422,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>530</v>
       </c>
@@ -9496,7 +9511,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>530</v>
       </c>
@@ -9585,7 +9600,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>530</v>
       </c>
@@ -9674,7 +9689,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>593</v>
       </c>
@@ -9733,7 +9748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>593</v>
       </c>
@@ -9822,7 +9837,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="75" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>593</v>
       </c>
@@ -9911,7 +9926,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="76" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>593</v>
       </c>
@@ -10000,7 +10015,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="77" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>593</v>
       </c>
@@ -10089,7 +10104,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="78" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>593</v>
       </c>
@@ -10178,7 +10193,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="79" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>593</v>
       </c>
@@ -10267,7 +10282,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="80" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>593</v>
       </c>
@@ -10356,7 +10371,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="81" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>593</v>
       </c>
@@ -10445,7 +10460,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>593</v>
       </c>
@@ -10534,7 +10549,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>593</v>
       </c>
@@ -10623,7 +10638,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="84" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>593</v>
       </c>
@@ -10712,7 +10727,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>593</v>
       </c>
@@ -10801,7 +10816,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="86" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>593</v>
       </c>
@@ -10893,7 +10908,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="87" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>593</v>
       </c>
@@ -10982,7 +10997,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="88" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>593</v>
       </c>
@@ -11071,7 +11086,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>593</v>
       </c>
@@ -11160,7 +11175,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>593</v>
       </c>
@@ -11249,7 +11264,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="91" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>593</v>
       </c>
@@ -11338,7 +11353,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="92" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>593</v>
       </c>
@@ -11427,7 +11442,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="93" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>593</v>
       </c>
@@ -11516,7 +11531,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="94" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>593</v>
       </c>
@@ -11606,7 +11621,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>